--- a/assets/excel/60nolu.xlsx
+++ b/assets/excel/60nolu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahiratakancan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62697C55-B065-174D-B317-1EA0BB5E2E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB2AB4-4D4B-A343-96FF-18DF56C032A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="500" windowWidth="23240" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="&quot;₺&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -847,14 +847,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,7 +3149,7 @@
         <v>26</v>
       </c>
       <c r="F100" s="4">
-        <v>286</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
